--- a/data/trans_dic/P1410-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1410-Edad-trans_dic.xlsx
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.004488346526526617</v>
+        <v>0.004470872609171254</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002323553508576561</v>
+        <v>0.002309025613517471</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0032772462274339</v>
+        <v>0.003256712777477714</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.002368007518555291</v>
+        <v>0.002359404405604497</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>0</v>
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.009706422093871365</v>
+        <v>0.0107828002689612</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01474512753734466</v>
+        <v>0.01471555970065661</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0181720430377316</v>
+        <v>0.0174480414144456</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05438111415155948</v>
+        <v>0.05277575233311427</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01269790693348406</v>
+        <v>0.00951194248042762</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02483574650017697</v>
+        <v>0.02479067179309417</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0206695558461757</v>
+        <v>0.02047612861581306</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04714986896475245</v>
+        <v>0.04165725605912234</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.00628867912481235</v>
+        <v>0.006532850287746642</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0153610511499806</v>
+        <v>0.01454994009078097</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01426150840562338</v>
+        <v>0.01372201662870275</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.030704190037157</v>
+        <v>0.02883393511314528</v>
       </c>
     </row>
     <row r="7">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001239848435744611</v>
+        <v>0.001218873171087489</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
@@ -854,28 +854,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001386026987984435</v>
+        <v>0.001377571057227237</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001718379660441157</v>
+        <v>0.001735809585256891</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.001685559441709697</v>
+        <v>0.001695003182296541</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.001939305758725575</v>
+        <v>0.001436669739759948</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0007959715465596012</v>
+        <v>0.0007565780394610907</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.000849297787341172</v>
+        <v>0.0008530724559092605</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.001994556211652693</v>
+        <v>0.001795753383779314</v>
       </c>
     </row>
     <row r="9">
@@ -886,38 +886,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01149681895365122</v>
+        <v>0.01146019431604954</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01060955499103317</v>
+        <v>0.01167499588293651</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.01836676284441405</v>
+        <v>0.01746860317557693</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01293511323137586</v>
+        <v>0.01199091768683923</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0123779243699114</v>
+        <v>0.009586578622408505</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01550263665370141</v>
+        <v>0.01701623280862751</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01517939799457741</v>
+        <v>0.01605975149774088</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.008448083371094848</v>
+        <v>0.009076012724944682</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.007669677329804663</v>
+        <v>0.008234459255120253</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.008425400620776324</v>
+        <v>0.008454279133081454</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01277524869117062</v>
+        <v>0.01254466380438349</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.01079902255539498</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.00804086942299965</v>
+        <v>0.008040869422999652</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.00821263988012283</v>
@@ -979,37 +979,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004306721787201461</v>
+        <v>0.004400791126286099</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003523570468301183</v>
+        <v>0.003492153235601939</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007054374579968755</v>
+        <v>0.006053935855234512</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.005757041752467376</v>
+        <v>0.006912926718382303</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.004303241941502721</v>
+        <v>0.005071357367291867</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.00339187207979605</v>
+        <v>0.003459908843201168</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.004185988655034088</v>
+        <v>0.004318096612354876</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007111834927871405</v>
+        <v>0.006944329564700489</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.002857292272140032</v>
+        <v>0.002942509834046211</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.004602234002683049</v>
+        <v>0.004945668558650559</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01007086943084844</v>
+        <v>0.009626246085766243</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02047766145739534</v>
+        <v>0.0203469475030018</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01050134804126921</v>
+        <v>0.01055346662393271</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02410765021218206</v>
+        <v>0.02279826836406959</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02393266285478245</v>
+        <v>0.02321618906744938</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02442221622098104</v>
+        <v>0.02564144684581792</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02137452675746715</v>
+        <v>0.02223416550622351</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01653835525904735</v>
+        <v>0.01531019020001467</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0147953345411684</v>
+        <v>0.01470376659148927</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01948474269887332</v>
+        <v>0.0188744880420398</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01205649698988135</v>
+        <v>0.01294645420739122</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01557746371816425</v>
+        <v>0.01562685085967976</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01719829366516969</v>
+        <v>0.01628096374338701</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009842777433580604</v>
+        <v>0.01059569888556456</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009667976107481128</v>
+        <v>0.01100850042186161</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02000552382204823</v>
+        <v>0.02053939522249104</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01280918045401564</v>
+        <v>0.01242330686478357</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.003486047080663506</v>
+        <v>0.00184174224609091</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01311974968429703</v>
+        <v>0.01426931212408546</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01492538524960281</v>
+        <v>0.0155039957790168</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01819631339380521</v>
+        <v>0.01793077830266426</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.008683034654934002</v>
+        <v>0.008804802450226152</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01430738229121586</v>
+        <v>0.01489328765687128</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01897155193860285</v>
+        <v>0.01923352969778683</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05002180987617047</v>
+        <v>0.04811779731112069</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03899201369059934</v>
+        <v>0.03605894602709673</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03212330461830432</v>
+        <v>0.03439424513109167</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04615381123021235</v>
+        <v>0.04792912889630394</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04208699088675409</v>
+        <v>0.03939651518830873</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01933064333356167</v>
+        <v>0.01897694093628971</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03926983124493225</v>
+        <v>0.038993172346288</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03260190862651781</v>
+        <v>0.03301717739832433</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03871868226439767</v>
+        <v>0.03807435784731481</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02502403680520869</v>
+        <v>0.02462745282014083</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03067766830648881</v>
+        <v>0.03129366247003722</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03588956455483049</v>
+        <v>0.03526859046677239</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.05995511057204744</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08629647119126015</v>
+        <v>0.08629647119126013</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.04965032184168672</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07962301960887368</v>
+        <v>0.08018208674982601</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03433772091681886</v>
+        <v>0.03386233286283978</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03901331778442244</v>
+        <v>0.0404744533292978</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06714447871769411</v>
+        <v>0.06658364591399479</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03117065640774804</v>
+        <v>0.03021672078799116</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03938769315205826</v>
+        <v>0.0370995189140431</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02016680689064526</v>
+        <v>0.02012779576886557</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0225795027323424</v>
+        <v>0.02284966903788263</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06140854933567377</v>
+        <v>0.0616249928651099</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04073089288200004</v>
+        <v>0.0422170515157104</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03325637356915484</v>
+        <v>0.03376620541078226</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04861435490155516</v>
+        <v>0.04842812324551032</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1433563395143711</v>
+        <v>0.1435998717676181</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07857397062547156</v>
+        <v>0.07606901482020245</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08808442677726927</v>
+        <v>0.08950840742746834</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1087531776347108</v>
+        <v>0.1106359359175791</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07509566973234319</v>
+        <v>0.07290077097880376</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08233292331763511</v>
+        <v>0.08235115468755509</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0541702717607639</v>
+        <v>0.0515501154498394</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0453838624697945</v>
+        <v>0.04786561312986002</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09690000186846681</v>
+        <v>0.0982006823603712</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07341988060689496</v>
+        <v>0.07497911338448189</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06273761492681938</v>
+        <v>0.06301654126548538</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.073333916176577</v>
+        <v>0.07240731161119217</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.1233124231557514</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.09322600923394207</v>
+        <v>0.09322600923394206</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.08478023457430013</v>
@@ -1361,7 +1361,7 @@
         <v>0.1161865176382312</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.06637502053419667</v>
+        <v>0.06637502053419665</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1113154477216357</v>
@@ -1373,7 +1373,7 @@
         <v>0.1195321583410608</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.0792966390448616</v>
+        <v>0.07929663904486159</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1058544762160145</v>
+        <v>0.1076323639635832</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07136270038938376</v>
+        <v>0.06878242310243136</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0917889124768709</v>
+        <v>0.08994943868545073</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07190598013773958</v>
+        <v>0.07119933264021644</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.05908523679307762</v>
+        <v>0.06066953808057771</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05953133831776843</v>
+        <v>0.05620428600349601</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.08516313231659864</v>
+        <v>0.08599154885483896</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04962560493091297</v>
+        <v>0.05060132560009495</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.08943360941765911</v>
+        <v>0.08749110566351329</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06962387584188269</v>
+        <v>0.07230502332140741</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.09821854923672242</v>
+        <v>0.09652060744667273</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0663045319108006</v>
+        <v>0.06624680459418052</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1869104500420029</v>
+        <v>0.1862772593557984</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1391952414538805</v>
+        <v>0.1387034904159618</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1620310340712581</v>
+        <v>0.1611404364969672</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1207811718217552</v>
+        <v>0.1190776099272143</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1187357411646193</v>
+        <v>0.116832781122354</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.121584183169826</v>
+        <v>0.1162836076651797</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1514071338624567</v>
+        <v>0.1551273479057329</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08549403944927898</v>
+        <v>0.08552266282197989</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1354050186482327</v>
+        <v>0.1366426380692689</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.113700439249102</v>
+        <v>0.115718140649912</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1466435829873474</v>
+        <v>0.1426585027929914</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.09715454370529633</v>
+        <v>0.09396271911471801</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.159932970356844</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2141372654034731</v>
+        <v>0.2141372654034732</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1575066724964481</v>
@@ -1509,7 +1509,7 @@
         <v>0.167830492216111</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.1976855894161279</v>
+        <v>0.1976855894161278</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1676554546511702</v>
+        <v>0.1672302073743986</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.16638742743331</v>
+        <v>0.1649547489808462</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1213954075867343</v>
+        <v>0.1213370690571055</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1746588925823525</v>
+        <v>0.1801705516736016</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1204039872388469</v>
+        <v>0.1224523195056327</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1447965125314426</v>
+        <v>0.1471048852420894</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1306547459440791</v>
+        <v>0.1358056839745597</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1620659278069246</v>
+        <v>0.1600577147035316</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1496238424286118</v>
+        <v>0.1496054414185465</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1663052107175884</v>
+        <v>0.1677671680310089</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.139818180360344</v>
+        <v>0.1400748226669911</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1759431462668628</v>
+        <v>0.1754788567278501</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2763528524703867</v>
+        <v>0.2784740374698143</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2751015707075581</v>
+        <v>0.2793896197803221</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2099075667046889</v>
+        <v>0.2022158293736942</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2578401835019062</v>
+        <v>0.2559688145012182</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2053106887126442</v>
+        <v>0.2054940643570415</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2242590590532877</v>
+        <v>0.2288071812013688</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2181656668580187</v>
+        <v>0.2211289132076082</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2151602641652202</v>
+        <v>0.2127526381829712</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2192613718129525</v>
+        <v>0.2168532592937716</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.231573878690053</v>
+        <v>0.2356598238937773</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2012978555663797</v>
+        <v>0.2015938847828548</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2234063767708681</v>
+        <v>0.2188805865827049</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>0.03757930392139987</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.05410503543048416</v>
+        <v>0.05410503543048414</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.03749427037481552</v>
@@ -1645,7 +1645,7 @@
         <v>0.04137330976841951</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.048764213079194</v>
+        <v>0.04876421307919401</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03900027898647941</v>
+        <v>0.03894281461263312</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03229926944250913</v>
+        <v>0.03268903234787433</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03089336057258889</v>
+        <v>0.03176631023465</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04741618525527302</v>
+        <v>0.04711764813906169</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.03150103171217517</v>
+        <v>0.03129663667719019</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03536255506807281</v>
+        <v>0.03536719525182312</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03770325815068848</v>
+        <v>0.03830071900844918</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.03904907007757224</v>
+        <v>0.03856094985357014</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03657946033317552</v>
+        <v>0.0365154633036894</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03567362293135719</v>
+        <v>0.03576772445043486</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.03659295757652977</v>
+        <v>0.03635389394962036</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.04457084396881287</v>
+        <v>0.04448581522979106</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05352067719743866</v>
+        <v>0.05355845896557711</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04639888393738963</v>
+        <v>0.04577139515693036</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04394030794799772</v>
+        <v>0.04463377889262642</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06235354359166959</v>
+        <v>0.06166053660621145</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.044853782547829</v>
+        <v>0.04500453011085189</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.0482577176488562</v>
+        <v>0.04907084107366125</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05226565948280988</v>
+        <v>0.05318422671458131</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.05010991922348631</v>
+        <v>0.04940168977955887</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04659699817191171</v>
+        <v>0.046303080971237</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04501323437503094</v>
+        <v>0.04549333223087636</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.04641976603389505</v>
+        <v>0.04636137467478451</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.05344702660870623</v>
+        <v>0.05380932543341041</v>
       </c>
     </row>
     <row r="28">
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>0</v>
@@ -2034,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2898</v>
+        <v>2880</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1930</v>
+        <v>1923</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0</v>
@@ -2051,40 +2051,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4796</v>
+        <v>5327</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6696</v>
+        <v>6683</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7622</v>
+        <v>7319</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>22176</v>
+        <v>21522</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5936</v>
+        <v>4447</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10685</v>
+        <v>10666</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8180</v>
+        <v>8104</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17092</v>
+        <v>15101</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6047</v>
+        <v>6282</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>13585</v>
+        <v>12868</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>11626</v>
+        <v>11186</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>23652</v>
+        <v>22211</v>
       </c>
     </row>
     <row r="8">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
@@ -2197,28 +2197,28 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2639</v>
+        <v>1955</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1033</v>
+        <v>982</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1951</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="11">
@@ -2229,38 +2229,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8456</v>
+        <v>8429</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7290</v>
+        <v>8022</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>8759</v>
+        <v>8331</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8091</v>
+        <v>7500</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7554</v>
+        <v>5850</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8736</v>
+        <v>9589</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>7606</v>
+        <v>8047</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11498</v>
+        <v>12352</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>9950</v>
+        <v>10683</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>9723</v>
+        <v>9757</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>12494</v>
+        <v>12268</v>
       </c>
     </row>
     <row r="12">
@@ -2366,37 +2366,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2937</v>
+        <v>3001</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2188</v>
+        <v>2168</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4866</v>
+        <v>4176</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4085</v>
+        <v>4905</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2846</v>
+        <v>3354</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2108</v>
+        <v>2150</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5561</v>
+        <v>5736</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>9896</v>
+        <v>9663</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3802</v>
+        <v>3915</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>5717</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="15">
@@ -2407,40 +2407,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6432</v>
+        <v>6148</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13963</v>
+        <v>13874</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7026</v>
+        <v>7061</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14967</v>
+        <v>14154</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16507</v>
+        <v>16013</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17329</v>
+        <v>18195</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14137</v>
+        <v>14705</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10278</v>
+        <v>9515</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>19654</v>
+        <v>19533</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>27112</v>
+        <v>26263</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>16041</v>
+        <v>17225</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>19352</v>
+        <v>19414</v>
       </c>
     </row>
     <row r="16">
@@ -2543,40 +2543,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8928</v>
+        <v>8452</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6050</v>
+        <v>6512</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6246</v>
+        <v>7112</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13989</v>
+        <v>14362</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6605</v>
+        <v>6406</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2141</v>
+        <v>1131</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8516</v>
+        <v>9262</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10992</v>
+        <v>11419</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>18829</v>
+        <v>18555</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>10670</v>
+        <v>10820</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>18530</v>
+        <v>19289</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>27238</v>
+        <v>27614</v>
       </c>
     </row>
     <row r="19">
@@ -2587,40 +2587,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25969</v>
+        <v>24980</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23965</v>
+        <v>22162</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20753</v>
+        <v>22220</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>32272</v>
+        <v>33514</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21702</v>
+        <v>20314</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>11874</v>
+        <v>11657</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25489</v>
+        <v>25310</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>24011</v>
+        <v>24317</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>40066</v>
+        <v>39399</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>30752</v>
+        <v>30264</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>39731</v>
+        <v>40529</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>51528</v>
+        <v>50636</v>
       </c>
     </row>
     <row r="20">
@@ -2723,40 +2723,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>30791</v>
+        <v>31007</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>14746</v>
+        <v>14541</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18645</v>
+        <v>19343</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>40848</v>
+        <v>40507</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12593</v>
+        <v>12207</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>17638</v>
+        <v>16613</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>10020</v>
+        <v>10000</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>13685</v>
+        <v>13849</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>48555</v>
+        <v>48727</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>35730</v>
+        <v>37034</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>32417</v>
+        <v>32914</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>59039</v>
+        <v>58813</v>
       </c>
     </row>
     <row r="23">
@@ -2767,40 +2767,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>55437</v>
+        <v>55532</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>33742</v>
+        <v>32666</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>42097</v>
+        <v>42778</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>66161</v>
+        <v>67306</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>30338</v>
+        <v>29451</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>36869</v>
+        <v>36877</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>26914</v>
+        <v>25613</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>27506</v>
+        <v>29010</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>76618</v>
+        <v>77647</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>64406</v>
+        <v>65774</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>61155</v>
+        <v>61426</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>89059</v>
+        <v>87934</v>
       </c>
     </row>
     <row r="24">
@@ -2903,40 +2903,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>30971</v>
+        <v>31491</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>22107</v>
+        <v>21308</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>30688</v>
+        <v>30073</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>29209</v>
+        <v>28922</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>20262</v>
+        <v>20806</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>21074</v>
+        <v>19896</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>32171</v>
+        <v>32484</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>21731</v>
+        <v>22158</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>56837</v>
+        <v>55602</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>46215</v>
+        <v>47995</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>69941</v>
+        <v>68732</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>55968</v>
+        <v>55919</v>
       </c>
     </row>
     <row r="27">
@@ -2947,40 +2947,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>54687</v>
+        <v>54502</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>43121</v>
+        <v>42968</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>54172</v>
+        <v>53874</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>49063</v>
+        <v>48371</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>40719</v>
+        <v>40066</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>43040</v>
+        <v>41164</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>57196</v>
+        <v>58601</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>37437</v>
+        <v>37450</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>86052</v>
+        <v>86839</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>75472</v>
+        <v>76812</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>104424</v>
+        <v>101586</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>82008</v>
+        <v>79314</v>
       </c>
     </row>
     <row r="28">
@@ -3083,40 +3083,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>35188</v>
+        <v>35099</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>41572</v>
+        <v>41214</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>31198</v>
+        <v>31183</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>54179</v>
+        <v>55889</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>40204</v>
+        <v>40888</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>56152</v>
+        <v>57047</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>52284</v>
+        <v>54345</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>75232</v>
+        <v>74300</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>81364</v>
+        <v>81354</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>106044</v>
+        <v>106976</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>91884</v>
+        <v>92053</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>136252</v>
+        <v>135892</v>
       </c>
     </row>
     <row r="31">
@@ -3127,40 +3127,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>58002</v>
+        <v>58447</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>68734</v>
+        <v>69806</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>53946</v>
+        <v>51969</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>79982</v>
+        <v>79401</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>68555</v>
+        <v>68616</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>86967</v>
+        <v>88731</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>87303</v>
+        <v>88489</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>99879</v>
+        <v>98761</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>119232</v>
+        <v>117923</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>147662</v>
+        <v>150268</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>132286</v>
+        <v>132481</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>173007</v>
+        <v>169503</v>
       </c>
     </row>
     <row r="32">
@@ -3263,40 +3263,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>127786</v>
+        <v>127598</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>110682</v>
+        <v>112018</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>104863</v>
+        <v>107826</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>167357</v>
+        <v>166303</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>106448</v>
+        <v>105758</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>125676</v>
+        <v>125692</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>133641</v>
+        <v>135759</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>145643</v>
+        <v>143823</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>243463</v>
+        <v>243037</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>249027</v>
+        <v>249684</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>253915</v>
+        <v>252256</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>323552</v>
+        <v>322935</v>
       </c>
     </row>
     <row r="35">
@@ -3307,40 +3307,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>175363</v>
+        <v>175487</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>158999</v>
+        <v>156848</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>149149</v>
+        <v>151503</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>220078</v>
+        <v>217632</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>151570</v>
+        <v>152079</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>171504</v>
+        <v>174394</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>185258</v>
+        <v>188514</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>186898</v>
+        <v>184256</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>310138</v>
+        <v>308181</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>314224</v>
+        <v>317575</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>322102</v>
+        <v>321697</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>387987</v>
+        <v>390617</v>
       </c>
     </row>
     <row r="36">
